--- a/codigo_excel.xlsx
+++ b/codigo_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a1100b38a0a31/Área de Trabalho/projeto_1_git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a1100b38a0a31/Documentos/projeto_1_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0E72C1D5C445ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858E543A-012E-4DD5-B388-CC41270937D1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D361C20488DEA4E38A0E72C1D5C445ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DE5088-F7F3-4D51-A1EC-80626DF0B8AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>2022 excel</t>
+  </si>
+  <si>
+    <t>teste 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste2 </t>
   </si>
 </sst>
 </file>
@@ -345,15 +351,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
